--- a/data/land_statics.xlsx
+++ b/data/land_statics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\zivmax\CUMCM_2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBFF7824-4DAC-41EC-860B-54141AB648F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7DA72D-E2BB-41E6-BB36-B6762FE959A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7524" yWindow="2580" windowWidth="19176" windowHeight="9996" xr2:uid="{ADA3BE48-B93D-418F-B554-787C5CA63620}"/>
+    <workbookView xWindow="38310" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{ADA3BE48-B93D-418F-B554-787C5CA63620}"/>
   </bookViews>
   <sheets>
     <sheet name="乡村的现有耕地" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>说明</t>
+      <t>地块面积</t>
     </r>
     <r>
       <rPr>
@@ -406,11 +406,8 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+      <t>/</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -420,18 +417,11 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>地块面积</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
+      <t>亩</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -441,36 +431,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>亩</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>地块类型</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地块名称</t>
-    </r>
+    <t>说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地块编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +448,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -529,6 +499,14 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="1"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -612,29 +590,35 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -956,7 +940,9 @@
   </sheetPr>
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D55"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -968,27 +954,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="2" spans="1:4" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>80</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -996,640 +982,640 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>55</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>35</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>72</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>68</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>55</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>60</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>46</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>40</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>28</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>25</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>86</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>55</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>44</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>50</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>25</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>60</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>45</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>35</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>20</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>15</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>13</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>15</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>18</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>27</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>20</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>15</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>10</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>14</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>6</v>
       </c>
-      <c r="D31" s="4"/>
+      <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>10</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>12</v>
       </c>
-      <c r="D33" s="4"/>
+      <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>22</v>
       </c>
-      <c r="D34" s="4"/>
+      <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>20</v>
       </c>
-      <c r="D35" s="4"/>
+      <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D36" s="4"/>
+      <c r="C36" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D37" s="4"/>
+      <c r="C37" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D38" s="4"/>
+      <c r="C38" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D39" s="4"/>
+      <c r="C39" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D40" s="4"/>
+      <c r="C40" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D41" s="4"/>
+      <c r="C41" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D42" s="4"/>
+      <c r="C42" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D43" s="4"/>
+      <c r="C43" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D44" s="4"/>
+      <c r="C44" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D45" s="4"/>
+      <c r="C45" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D45" s="7"/>
     </row>
     <row r="46" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D46" s="4"/>
+      <c r="C46" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D47" s="4"/>
+      <c r="C47" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D47" s="7"/>
     </row>
     <row r="48" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D48" s="4"/>
+      <c r="C48" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D49" s="4"/>
+      <c r="C49" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D50" s="4"/>
+      <c r="C50" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D50" s="7"/>
     </row>
     <row r="51" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D51" s="4"/>
+      <c r="C51" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D51" s="7"/>
     </row>
     <row r="52" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D52" s="4"/>
+      <c r="C52" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C53" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D53" s="4"/>
+      <c r="C53" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D53" s="7"/>
     </row>
     <row r="54" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C54" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D54" s="4"/>
+      <c r="C54" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D55" s="2"/>
+      <c r="C55" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D55" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
